--- a/hardwareSpecification.xlsx
+++ b/hardwareSpecification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\giantHornet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58252C52-8D6F-4BEB-BE59-D47CE3FA66E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C505F7C4-AA05-47FF-A48A-325D3BDFB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{E89BEA6E-20FB-42A4-BE25-D4A3C303E9B4}"/>
   </bookViews>

--- a/hardwareSpecification.xlsx
+++ b/hardwareSpecification.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\giantHornet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C505F7C4-AA05-47FF-A48A-325D3BDFB0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CFD479-2258-4DC3-BBBF-280F1B68BD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{E89BEA6E-20FB-42A4-BE25-D4A3C303E9B4}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="4" xr2:uid="{E89BEA6E-20FB-42A4-BE25-D4A3C303E9B4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="battery" sheetId="2" r:id="rId2"/>
+    <sheet name="Body" sheetId="4" r:id="rId1"/>
+    <sheet name="ESC" sheetId="1" r:id="rId2"/>
+    <sheet name="Motor" sheetId="3" r:id="rId3"/>
+    <sheet name="battery" sheetId="2" r:id="rId4"/>
+    <sheet name="Sensor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>ESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +169,178 @@
   </si>
   <si>
     <t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100005277&amp;category=019003039</t>
+  </si>
+  <si>
+    <t>BLDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SUNNYSKY] X2212 980KV 드론모터 450-550급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>980kv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>412W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxConti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=99998169&amp;category=064010002</t>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S500 쿼드콥터 드론 PDB 에디션 베이직 콤보 - 헤비리프트 사양 (1kg 페이로드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[RTS] S3508-380KV Motor Set (12~13in/22.2V/ Wire 50cm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>106g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>380kv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.falconshop.co.kr/shop/goods/goods_view.php?&amp;goodsno=100003336</t>
+  </si>
+  <si>
+    <t>[GT-Drone] EC-X3 ESC for Multicopters (30A/OPTO/COB/6S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU9250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Beitian] 고정밀 미니 GPS 모듈 [BN-220]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NMEA0183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=15139881</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wireless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=15193221&amp;srsltid=AfmBOooOMg2O7P4w8dtosE_-1j83LlxCzwAQutOA3QHIy6tVv9vupQsD</t>
+  </si>
+  <si>
+    <t>[Happy House] ESP32-C3 SuperMini 개발보드 블랙 [CMODULE-13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wifi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4GHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,11 +726,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09546246-DC01-454C-87ED-B0B106258F5A}">
-  <dimension ref="B2:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D924553D-9824-483E-A477-488E114E1A28}">
+  <dimension ref="B2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09546246-DC01-454C-87ED-B0B106258F5A}">
+  <dimension ref="B2:E14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -617,18 +816,241 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14800</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A44229-8AE5-484A-9084-C2BD99ADD53A}">
+  <dimension ref="B2:E20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>25800</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1">
+        <v>39800</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2975E658-CFFB-4A96-89C4-8DE42F711605}">
   <dimension ref="B2:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -761,4 +1183,114 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F87D6C-7A04-4495-9334-CBE75ED45530}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1">
+        <v>28000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hardwareSpecification.xlsx
+++ b/hardwareSpecification.xlsx
@@ -18,288 +18,300 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="94">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="98">
+  <x:si>
+    <x:t>SDcard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=14486677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1342892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=15139881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=15193221</x:t>
+  </x:si>
   <x:si>
     <x:t>https://www.devicemart.co.kr/goods/view?no=1323062</x:t>
   </x:si>
   <x:si>
+    <x:t>S500 쿼드콥터 드론 PDB 에디션 베이직 콤보 - 헤비리프트 사양 (1kg 페이로드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=14584823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IMU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방전률</x:t>
+  </x:si>
+  <x:si>
     <x:t>ToF</x:t>
   </x:si>
   <x:si>
+    <x:t>65C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GPS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충전률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Max</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BAT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4S</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUCLEO-F446RE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XM30FX ESC 30A (400Hz/3A BEC/Universal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SUNNYSKY] X2212 980KV 드론모터 450-550급</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SMG] 아두이노 대기압/고도 센서 모듈 BMP280 [TYE-BMP28]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SMG] 아두이노 MicroSD 카드 소켓 모듈 [SZH-EKBZ-005]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1hPa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>106g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14.8V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BLDC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2200mAh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>980kv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Capa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>239g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2800mAh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>180MHz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3A BEC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Core</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxCell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.4GHz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>500Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9axis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>380kv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>wifi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>spec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Speed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베가 그래핀 4셀 14.8V 2200mAh 70C 축구드론</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PT-B2800-LiHV65 (15.2V, 4S1P, 65C+)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Beitian] 고정밀 미니 GPS 모듈 [BN-220]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.digikey.kr/ko/products/detail/stmicroelectronics/NUCLEO-F446RE/5347712</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?&amp;goodsno=100003336</x:t>
   </x:si>
   <x:si>
-    <x:t>NUCLEO-F446RE</x:t>
+    <x:t>[SMG] ToF 레이저 거리 측정 센서 모듈 UART I2C [ToF10120]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1326951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100000605&amp;category=064010018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=99998169&amp;category=064010002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100005277&amp;category=019003039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100087938&amp;category=019003039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resolution</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxConti</x:t>
+  </x:si>
+  <x:si>
+    <x:t>continuous</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diameter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Protocol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wireless</x:t>
   </x:si>
   <x:si>
     <x:t>Ultrasound</x:t>
   </x:si>
   <x:si>
-    <x:t>Core</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[SUNNYSKY] X2212 980KV 드론모터 450-550급</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XM30FX ESC 30A (400Hz/3A BEC/Universal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Distance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Height</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1hPa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180MHz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[SMG] 아두이노 대기압/고도 센서 모듈 BMP280 [TYE-BMP28]</x:t>
+    <x:t>NMEA0183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SMG] MPU-9250 아두이노 9축 자이로 센서 모듈 GY-9250 [SZH-EK037]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Happy House] ESP32-C3 SuperMini 개발보드 블랙 [CMODULE-13]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SMG-A] HC-SR04P 3.3V/5V 호환 초음파 거리센서 모듈 [SZH-USBC-004]</x:t>
   </x:si>
   <x:si>
     <x:t>[RTS] S3508-380KV Motor Set (12~13in/22.2V/ Wire 50cm)</x:t>
   </x:si>
   <x:si>
-    <x:t>[Happy House] ESP32-C3 SuperMini 개발보드 블랙 [CMODULE-13]</x:t>
-  </x:si>
-  <x:si>
     <x:t>[GT-Drone] EC-X3 ESC for Multicopters (30A/OPTO/COB/6S)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=14486677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=1342892</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=15193221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resolution</x:t>
-  </x:si>
-  <x:si>
-    <x:t>continuous</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diameter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxConti</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Protocol</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wireless</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NMEA0183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S500 쿼드콥터 드론 PDB 에디션 베이직 콤보 - 헤비리프트 사양 (1kg 페이로드)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=14584823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=15139881</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[SMG] MPU-9250 아두이노 9축 자이로 센서 모듈 GY-9250 [SZH-EK037]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[SMG-A] HC-SR04P 3.3V/5V 호환 초음파 거리센서 모듈 [SZH-USBC-004]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxCell</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14.8V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2200mAh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voltage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3A BEC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Capa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>239g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>980kv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLDC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2800mAh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>400Hz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weight</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Speed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Output</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9axis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>330W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wifi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500Hz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.4GHz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>380kv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PT-B2800-LiHV65 (15.2V, 4S1P, 65C+)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베가 그래핀 4셀 14.8V 2200mAh 70C 축구드론</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Beitian] 고정밀 미니 GPS 모듈 [BN-220]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.digikey.kr/ko/products/detail/stmicroelectronics/NUCLEO-F446RE/5347712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[SMG] ToF 레이저 거리 측정 센서 모듈 UART I2C [ToF10120]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>70C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GPS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>65C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충전률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1Hz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IMU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방전률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BAT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Max</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4S</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100087938&amp;category=019003039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=99998169&amp;category=064010002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100005277&amp;category=019003039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100000605&amp;category=064010018</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1254,14 +1266,14 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" t="s">
-        <x:v>32</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>26</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1279,117 +1291,117 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" t="s">
-        <x:v>85</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>7</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>39</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:4">
       <x:c r="B4" t="s">
-        <x:v>86</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>87</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:3">
       <x:c r="B5" t="s">
-        <x:v>20</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>69</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3">
       <x:c r="B6" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>77</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:5">
       <x:c r="B7" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C7" s="1">
         <x:v>10500</x:v>
       </x:c>
       <x:c r="E7" t="s">
-        <x:v>93</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:3">
       <x:c r="B9" t="s">
-        <x:v>85</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3">
       <x:c r="B10" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" t="s">
-        <x:v>86</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>76</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>34</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3">
       <x:c r="B12" t="s">
-        <x:v>20</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>69</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:3">
       <x:c r="B13" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>77</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:5">
       <x:c r="B14" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C14" s="1">
         <x:v>14800</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1407,159 +1419,159 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>6</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:3">
       <x:c r="B3" t="s">
-        <x:v>48</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:3">
       <x:c r="B4" t="s">
-        <x:v>50</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>51</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:3">
       <x:c r="B5" t="s">
-        <x:v>21</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3">
       <x:c r="B6" t="s">
-        <x:v>85</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:3">
       <x:c r="B7" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
         <x:v>31</x:v>
-      </x:c>
-      <x:c r="C7" t="s">
-        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" t="s">
-        <x:v>22</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>89</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:3">
       <x:c r="B9" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>75</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5">
       <x:c r="B10" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C10" s="1">
         <x:v>25800</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>91</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3">
       <x:c r="B12" t="s">
-        <x:v>43</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>13</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:3">
       <x:c r="B13" t="s">
-        <x:v>48</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:3">
       <x:c r="B14" t="s">
-        <x:v>50</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>55</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:3">
       <x:c r="B15" t="s">
-        <x:v>21</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>54</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:2">
       <x:c r="B16" t="s">
-        <x:v>85</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:3">
       <x:c r="B17" t="s">
-        <x:v>31</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>74</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" t="s">
-        <x:v>22</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>84</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D18" t="s">
-        <x:v>49</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:3">
       <x:c r="B19" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>33</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:5">
       <x:c r="B20" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C20" s="1">
         <x:v>39800</x:v>
       </x:c>
       <x:c r="E20" t="s">
-        <x:v>2</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1577,130 +1589,130 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" t="s">
-        <x:v>83</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>61</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:4">
       <x:c r="B3" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D3" t="s">
-        <x:v>88</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:3">
       <x:c r="B4" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>44</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:3">
       <x:c r="B5" t="s">
-        <x:v>81</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>72</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3">
       <x:c r="B6" t="s">
-        <x:v>78</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>82</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:3">
       <x:c r="B7" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>47</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="1">
         <x:v>39800</x:v>
       </x:c>
       <x:c r="E8" t="s">
-        <x:v>90</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3">
       <x:c r="B10" t="s">
-        <x:v>83</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>62</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>88</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3">
       <x:c r="B12" t="s">
-        <x:v>40</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>36</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:3">
       <x:c r="B13" t="s">
-        <x:v>81</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>68</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:3">
       <x:c r="B14" t="s">
-        <x:v>78</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>67</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:3">
       <x:c r="B15" t="s">
-        <x:v>46</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>41</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:5">
       <x:c r="B16" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C16" s="1">
         <x:v>39800</x:v>
       </x:c>
       <x:c r="E16" t="s">
-        <x:v>92</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1710,8 +1722,8 @@
   <x:sheetPr codeName="Sheet5"/>
   <x:dimension ref="B2:E40"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="M16" activeCellId="0" sqref="M16:M16"/>
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K24" activeCellId="0" sqref="K24:K24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -1721,85 +1733,85 @@
   <x:sheetData>
     <x:row r="2" spans="2:3">
       <x:c r="B2" t="s">
-        <x:v>80</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>29</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:3">
       <x:c r="B3" t="s">
-        <x:v>59</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>53</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:5">
       <x:c r="B5" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C5" s="1">
         <x:v>17600</x:v>
       </x:c>
       <x:c r="E5" t="s">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:3">
       <x:c r="B7" t="s">
-        <x:v>71</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>63</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:3">
       <x:c r="B8" t="s">
-        <x:v>23</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>25</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:3">
       <x:c r="B9" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>79</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:5">
       <x:c r="B10" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C10" s="1">
         <x:v>30800</x:v>
       </x:c>
       <x:c r="E10" t="s">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3">
       <x:c r="B12" t="s">
-        <x:v>24</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>14</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:3">
       <x:c r="B13" t="s">
-        <x:v>56</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:3">
       <x:c r="B14" t="s">
-        <x:v>70</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C14">
         <x:v>5</x:v>
@@ -1807,26 +1819,26 @@
     </x:row>
     <x:row r="15" spans="2:5">
       <x:c r="B15" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C15" s="1">
         <x:v>7700</x:v>
       </x:c>
       <x:c r="E15" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:3">
       <x:c r="B17" t="s">
-        <x:v>1</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>66</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:3">
       <x:c r="B18" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C18" s="4">
         <x:v>0.05</x:v>
@@ -1834,121 +1846,123 @@
     </x:row>
     <x:row r="20" spans="2:5">
       <x:c r="B20" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C20" s="1">
         <x:v>14300</x:v>
       </x:c>
       <x:c r="E20" t="s">
-        <x:v>16</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:3">
       <x:c r="B22" t="s">
-        <x:v>4</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>30</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:3">
       <x:c r="B23" t="s">
-        <x:v>19</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C23" s="4"/>
     </x:row>
     <x:row r="25" spans="2:5">
       <x:c r="B25" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C25" s="1">
         <x:v>1210</x:v>
       </x:c>
       <x:c r="E25" t="s">
-        <x:v>0</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:3">
       <x:c r="B27" t="s">
-        <x:v>8</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C27" t="s">
-        <x:v>30</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:3">
       <x:c r="B28" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C28" s="4"/>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>37</x:v>
+      </x:c>
     </x:row>
     <x:row r="30" spans="2:5">
       <x:c r="B30" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C30" s="1">
-        <x:v>1210</x:v>
+        <x:v>2200</x:v>
       </x:c>
       <x:c r="E30" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:3">
       <x:c r="B32" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C32" t="s">
-        <x:v>12</x:v>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C32" s="3" t="s">
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:3">
       <x:c r="B33" t="s">
-        <x:v>19</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C33" t="s">
-        <x:v>10</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:5">
       <x:c r="B35" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C35" s="1">
-        <x:v>2200</x:v>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C35" s="2">
+        <x:v>22239</x:v>
       </x:c>
       <x:c r="E35" t="s">
-        <x:v>27</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:3">
       <x:c r="B37" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C37" s="3" t="s">
-        <x:v>3</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="2:3">
       <x:c r="B38" t="s">
-        <x:v>65</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C38" t="s">
-        <x:v>11</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:5">
       <x:c r="B40" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C40" s="2">
-        <x:v>22239</x:v>
+        <x:v>1100</x:v>
       </x:c>
       <x:c r="E40" t="s">
-        <x:v>64</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/hardwareSpecification.xlsx
+++ b/hardwareSpecification.xlsx
@@ -1546,8 +1546,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B2:I56"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K44" activeCellId="0" sqref="K44:K44"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K24" activeCellId="0" sqref="K24:K24"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="10.699999999999999"/>
@@ -1891,8 +1891,8 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I23" s="9">
-        <x:f>F23*2</x:f>
-        <x:v>44478</x:v>
+        <x:f>F23*3</x:f>
+        <x:v>66717</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:9" ht="14.1" customHeight="1">
@@ -2393,7 +2393,7 @@
       <x:c r="H55" s="13"/>
       <x:c r="I55" s="8">
         <x:f>SUM(I4:I53)</x:f>
-        <x:v>532106</x:v>
+        <x:v>554345</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:8">

--- a/hardwareSpecification.xlsx
+++ b/hardwareSpecification.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <x:si>
     <x:t>[SMG] 아두이노 대기압/고도 센서 모듈 BMP280 [TYE-BMP28]</x:t>
   </x:si>
@@ -64,6 +64,9 @@
     <x:t>https://www.devicemart.co.kr/goods/view?no=14486677</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=3585</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://www.digikey.kr/ko/products/detail/stmicroelectronics/NUCLEO-F446RE/5347712</x:t>
   </x:si>
   <x:si>
@@ -139,6 +142,9 @@
     <x:t>보유</x:t>
   </x:si>
   <x:si>
+    <x:t>ETC</x:t>
+  </x:si>
+  <x:si>
     <x:t>NMEA0183</x:t>
   </x:si>
   <x:si>
@@ -323,13 +329,28 @@
   </x:si>
   <x:si>
     <x:t>Interface : UART / I2C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1321195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/M) 20cm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[CONNFLY (중국)] 핀헤더소켓 Single 1x40 Straight(2.54mm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1321196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/F) 20cm</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -422,8 +443,33 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="8">
+  <x:fills count="9">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -466,6 +512,12 @@
         <x:bgColor auto="1"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff9be5c8"/>
+        <x:bgColor auto="1"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
   <x:borders count="1">
     <x:border diagonalUp="1" diagonalDown="1">
@@ -533,7 +585,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="30">
+  <x:cellXfs count="32">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -744,6 +796,22 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1544,10 +1612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="B2:I56"/>
+  <x:dimension ref="B2:I60"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K24" activeCellId="0" sqref="K24:K24"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G42" activeCellId="0" sqref="G42:G43"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="10.699999999999999"/>
@@ -1566,28 +1634,28 @@
     <x:row r="1" ht="14.1" customHeight="1"/>
     <x:row r="2" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B2" s="11" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C2" s="11" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D2" s="11" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E2" s="11" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F2" s="11" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C2" s="11" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D2" s="11" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E2" s="11" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="F2" s="11" t="s">
-        <x:v>69</x:v>
-      </x:c>
       <x:c r="G2" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="H2" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="I2" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="2:9" ht="14.1" customHeight="1">
@@ -1602,20 +1670,20 @@
     </x:row>
     <x:row r="4" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B4" s="17" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="E4" s="13"/>
       <x:c r="F4" s="14">
         <x:v>278000</x:v>
       </x:c>
       <x:c r="G4" s="12" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="H4" s="13"/>
       <x:c r="I4" s="9">
@@ -1627,7 +1695,7 @@
       <x:c r="B5" s="17"/>
       <x:c r="C5" s="13"/>
       <x:c r="D5" s="5" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E5" s="13"/>
       <x:c r="F5" s="14"/>
@@ -1639,7 +1707,7 @@
       <x:c r="B6" s="17"/>
       <x:c r="C6" s="13"/>
       <x:c r="D6" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E6" s="13"/>
       <x:c r="F6" s="14"/>
@@ -1651,7 +1719,7 @@
       <x:c r="B7" s="17"/>
       <x:c r="C7" s="13"/>
       <x:c r="D7" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E7" s="13"/>
       <x:c r="F7" s="14"/>
@@ -1661,10 +1729,10 @@
     </x:row>
     <x:row r="8" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B8" s="26" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
         <x:v>7</x:v>
@@ -1674,18 +1742,18 @@
         <x:v>14800</x:v>
       </x:c>
       <x:c r="G8" s="22" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="H8" s="20"/>
       <x:c r="I8" s="23" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B9" s="26"/>
       <x:c r="C9" s="20"/>
       <x:c r="D9" s="4" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E9" s="20"/>
       <x:c r="F9" s="21"/>
@@ -1697,7 +1765,7 @@
       <x:c r="B10" s="26"/>
       <x:c r="C10" s="20"/>
       <x:c r="D10" s="4" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E10" s="20"/>
       <x:c r="F10" s="21"/>
@@ -1719,31 +1787,31 @@
     </x:row>
     <x:row r="12" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B12" s="27" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C12" s="20" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E12" s="20"/>
       <x:c r="F12" s="21">
         <x:v>39800</x:v>
       </x:c>
       <x:c r="G12" s="22" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H12" s="20"/>
       <x:c r="I12" s="25" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B13" s="27"/>
       <x:c r="C13" s="20"/>
       <x:c r="D13" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E13" s="20"/>
       <x:c r="F13" s="21"/>
@@ -1755,7 +1823,7 @@
       <x:c r="B14" s="27"/>
       <x:c r="C14" s="20"/>
       <x:c r="D14" s="4" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="E14" s="20"/>
       <x:c r="F14" s="21"/>
@@ -1767,7 +1835,7 @@
       <x:c r="B15" s="27"/>
       <x:c r="C15" s="20"/>
       <x:c r="D15" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E15" s="20"/>
       <x:c r="F15" s="21"/>
@@ -1779,7 +1847,7 @@
       <x:c r="B16" s="27"/>
       <x:c r="C16" s="20"/>
       <x:c r="D16" s="4" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="E16" s="20"/>
       <x:c r="F16" s="21"/>
@@ -1791,7 +1859,7 @@
       <x:c r="B17" s="27"/>
       <x:c r="C17" s="20"/>
       <x:c r="D17" s="4" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E17" s="20"/>
       <x:c r="F17" s="21"/>
@@ -1801,20 +1869,20 @@
     </x:row>
     <x:row r="18" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B18" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C18" s="20" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D18" s="4" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E18" s="20"/>
       <x:c r="F18" s="21">
         <x:v>85000</x:v>
       </x:c>
       <x:c r="G18" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H18" s="20"/>
       <x:c r="I18" s="23">
@@ -1826,7 +1894,7 @@
       <x:c r="B19" s="28"/>
       <x:c r="C19" s="20"/>
       <x:c r="D19" s="4" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E19" s="20"/>
       <x:c r="F19" s="21"/>
@@ -1838,7 +1906,7 @@
       <x:c r="B20" s="28"/>
       <x:c r="C20" s="20"/>
       <x:c r="D20" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E20" s="20"/>
       <x:c r="F20" s="21"/>
@@ -1850,7 +1918,7 @@
       <x:c r="B21" s="28"/>
       <x:c r="C21" s="20"/>
       <x:c r="D21" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E21" s="20"/>
       <x:c r="F21" s="21"/>
@@ -1862,7 +1930,7 @@
       <x:c r="B22" s="28"/>
       <x:c r="C22" s="20"/>
       <x:c r="D22" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E22" s="20"/>
       <x:c r="F22" s="21"/>
@@ -1872,20 +1940,20 @@
     </x:row>
     <x:row r="23" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B23" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C23" s="13" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D23" s="13" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E23" s="13"/>
       <x:c r="F23" s="14">
         <x:v>22239</x:v>
       </x:c>
       <x:c r="G23" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H23" s="12" t="s">
         <x:v>13</x:v>
@@ -1907,10 +1975,10 @@
     </x:row>
     <x:row r="25" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B25" s="18" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C25" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D25" s="13" t="s">
         <x:v>6</x:v>
@@ -1920,7 +1988,7 @@
         <x:v>4730</x:v>
       </x:c>
       <x:c r="G25" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H25" s="13"/>
       <x:c r="I25" s="9">
@@ -1940,20 +2008,20 @@
     </x:row>
     <x:row r="27" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B27" s="17" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C27" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D27" s="5" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E27" s="13"/>
       <x:c r="F27" s="14">
         <x:v>2838</x:v>
       </x:c>
       <x:c r="G27" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H27" s="13"/>
       <x:c r="I27" s="9">
@@ -1977,7 +2045,7 @@
       <x:c r="B29" s="17"/>
       <x:c r="C29" s="13"/>
       <x:c r="D29" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E29" s="13"/>
       <x:c r="F29" s="14"/>
@@ -1987,23 +2055,23 @@
     </x:row>
     <x:row r="30" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B30" s="16" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C30" s="13" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D30" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E30" s="13"/>
       <x:c r="F30" s="14">
         <x:v>17600</x:v>
       </x:c>
       <x:c r="G30" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H30" s="12" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="I30" s="9">
         <x:f>F30</x:f>
@@ -2014,7 +2082,7 @@
       <x:c r="B31" s="16"/>
       <x:c r="C31" s="13"/>
       <x:c r="D31" s="5" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E31" s="13"/>
       <x:c r="F31" s="14"/>
@@ -2026,7 +2094,7 @@
       <x:c r="B32" s="16"/>
       <x:c r="C32" s="13"/>
       <x:c r="D32" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="E32" s="13"/>
       <x:c r="F32" s="14"/>
@@ -2038,7 +2106,7 @@
       <x:c r="B33" s="16"/>
       <x:c r="C33" s="13"/>
       <x:c r="D33" s="5" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="E33" s="13"/>
       <x:c r="F33" s="14"/>
@@ -2049,22 +2117,22 @@
     <x:row r="34" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B34" s="16"/>
       <x:c r="C34" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D34" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E34" s="13" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F34" s="14">
         <x:v>30800</x:v>
       </x:c>
       <x:c r="G34" s="12" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H34" s="12" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I34" s="9">
         <x:f>F34</x:f>
@@ -2087,7 +2155,7 @@
       <x:c r="B36" s="16"/>
       <x:c r="C36" s="13"/>
       <x:c r="D36" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E36" s="13"/>
       <x:c r="F36" s="14"/>
@@ -2108,10 +2176,10 @@
         <x:v>2200</x:v>
       </x:c>
       <x:c r="G37" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="H37" s="12" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I37" s="9">
         <x:f>F37</x:f>
@@ -2122,7 +2190,7 @@
       <x:c r="B38" s="16"/>
       <x:c r="C38" s="13"/>
       <x:c r="D38" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E38" s="13"/>
       <x:c r="F38" s="14"/>
@@ -2155,7 +2223,7 @@
         <x:v>5500</x:v>
       </x:c>
       <x:c r="G40" s="12" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H40" s="13"/>
       <x:c r="I40" s="9">
@@ -2181,14 +2249,14 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D42" s="5" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E42" s="13"/>
       <x:c r="F42" s="14">
         <x:v>1100</x:v>
       </x:c>
       <x:c r="G42" s="12" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H42" s="13"/>
       <x:c r="I42" s="9">
@@ -2200,7 +2268,7 @@
       <x:c r="B43" s="16"/>
       <x:c r="C43" s="13"/>
       <x:c r="D43" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E43" s="13"/>
       <x:c r="F43" s="14"/>
@@ -2211,17 +2279,17 @@
     <x:row r="44" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B44" s="16"/>
       <x:c r="C44" s="13" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D44" s="5" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E44" s="13"/>
       <x:c r="F44" s="14">
         <x:v>7700</x:v>
       </x:c>
       <x:c r="G44" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H44" s="13"/>
       <x:c r="I44" s="9">
@@ -2233,7 +2301,7 @@
       <x:c r="B45" s="16"/>
       <x:c r="C45" s="13"/>
       <x:c r="D45" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E45" s="13"/>
       <x:c r="F45" s="14"/>
@@ -2244,10 +2312,10 @@
     <x:row r="46" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B46" s="29"/>
       <x:c r="C46" s="20" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D46" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E46" s="4"/>
       <x:c r="F46" s="21">
@@ -2286,20 +2354,20 @@
     </x:row>
     <x:row r="49" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B49" s="15" t="s">
-        <x:v>46</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C49" s="13" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D49" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E49" s="13"/>
       <x:c r="F49" s="14">
         <x:v>22000</x:v>
       </x:c>
       <x:c r="G49" s="12" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H49" s="13"/>
       <x:c r="I49" s="9">
@@ -2322,37 +2390,37 @@
     <x:row r="51" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B51" s="15"/>
       <x:c r="C51" s="5" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D51" s="5" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E51" s="5"/>
       <x:c r="F51" s="6">
         <x:v>25300</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H51" s="5"/>
       <x:c r="I51" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="2:9" ht="14.1" customHeight="1">
       <x:c r="B52" s="15"/>
       <x:c r="C52" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D52" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E52" s="13"/>
       <x:c r="F52" s="14">
         <x:v>8580</x:v>
       </x:c>
       <x:c r="G52" s="12" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H52" s="12" t="s">
         <x:v>12</x:v>
@@ -2366,7 +2434,7 @@
       <x:c r="B53" s="15"/>
       <x:c r="C53" s="13"/>
       <x:c r="D53" s="5" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E53" s="13"/>
       <x:c r="F53" s="14"/>
@@ -2380,30 +2448,98 @@
       <x:c r="D54" s="5"/>
       <x:c r="E54" s="5"/>
       <x:c r="F54" s="5"/>
-      <x:c r="G54" s="5"/>
+      <x:c r="G54" s="4"/>
       <x:c r="H54" s="5"/>
     </x:row>
-    <x:row r="55" spans="2:9">
-      <x:c r="B55" s="11"/>
-      <x:c r="C55" s="13"/>
-      <x:c r="D55" s="13"/>
-      <x:c r="E55" s="13"/>
-      <x:c r="F55" s="14"/>
-      <x:c r="G55" s="13"/>
-      <x:c r="H55" s="13"/>
-      <x:c r="I55" s="8">
+    <x:row r="55" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B55" s="30" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C55" s="4" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D55" s="4"/>
+      <x:c r="E55" s="4"/>
+      <x:c r="F55" s="4">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="G55" s="31" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H55" s="4"/>
+      <x:c r="I55" s="2">
+        <x:f>F55</x:f>
+        <x:v>528</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B56" s="30"/>
+      <x:c r="C56" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D56" s="4"/>
+      <x:c r="E56" s="4"/>
+      <x:c r="F56" s="4">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="G56" s="31" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H56" s="4"/>
+      <x:c r="I56" s="2">
+        <x:f>F56</x:f>
+        <x:v>935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B57" s="30"/>
+      <x:c r="C57" s="4" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D57" s="4"/>
+      <x:c r="E57" s="4"/>
+      <x:c r="F57" s="4">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="G57" s="31" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H57" s="4"/>
+      <x:c r="I57" s="2">
+        <x:f>F57</x:f>
+        <x:v>935</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="2:8" ht="14.1" customHeight="1">
+      <x:c r="B58" s="30"/>
+      <x:c r="C58" s="4"/>
+      <x:c r="D58" s="4"/>
+      <x:c r="E58" s="4"/>
+      <x:c r="F58" s="4"/>
+      <x:c r="G58" s="4"/>
+      <x:c r="H58" s="4"/>
+    </x:row>
+    <x:row r="59" spans="2:9">
+      <x:c r="B59" s="11"/>
+      <x:c r="C59" s="13"/>
+      <x:c r="D59" s="13"/>
+      <x:c r="E59" s="13"/>
+      <x:c r="F59" s="14"/>
+      <x:c r="G59" s="13"/>
+      <x:c r="H59" s="13"/>
+      <x:c r="I59" s="8">
         <x:f>SUM(I4:I53)</x:f>
         <x:v>554345</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="2:8">
-      <x:c r="B56" s="11"/>
-      <x:c r="C56" s="13"/>
-      <x:c r="D56" s="13"/>
-      <x:c r="E56" s="13"/>
-      <x:c r="F56" s="13"/>
-      <x:c r="G56" s="13"/>
-      <x:c r="H56" s="13"/>
+    <x:row r="60" spans="2:8">
+      <x:c r="B60" s="11"/>
+      <x:c r="C60" s="13"/>
+      <x:c r="D60" s="13"/>
+      <x:c r="E60" s="13"/>
+      <x:c r="F60" s="13"/>
+      <x:c r="G60" s="13"/>
+      <x:c r="H60" s="13"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="126">
@@ -2422,13 +2558,13 @@
     <x:mergeCell ref="I23:I24"/>
     <x:mergeCell ref="G52:G53"/>
     <x:mergeCell ref="H52:H53"/>
-    <x:mergeCell ref="B55:B56"/>
-    <x:mergeCell ref="C55:C56"/>
-    <x:mergeCell ref="D55:D56"/>
-    <x:mergeCell ref="E55:E56"/>
-    <x:mergeCell ref="F55:F56"/>
-    <x:mergeCell ref="G55:G56"/>
-    <x:mergeCell ref="H55:H56"/>
+    <x:mergeCell ref="B59:B60"/>
+    <x:mergeCell ref="C59:C60"/>
+    <x:mergeCell ref="D59:D60"/>
+    <x:mergeCell ref="E59:E60"/>
+    <x:mergeCell ref="F59:F60"/>
+    <x:mergeCell ref="G59:G60"/>
+    <x:mergeCell ref="H59:H60"/>
     <x:mergeCell ref="B49:B54"/>
     <x:mergeCell ref="C49:C50"/>
     <x:mergeCell ref="E49:E50"/>
@@ -2556,6 +2692,9 @@
     <x:hyperlink ref="G18:G22" r:id="rId19"/>
     <x:hyperlink ref="G44:G44" r:id="rId20"/>
     <x:hyperlink ref="G49:G49" r:id="rId21"/>
+    <x:hyperlink ref="G55:G55" r:id="rId22"/>
+    <x:hyperlink ref="G56:G56" r:id="rId23"/>
+    <x:hyperlink ref="G57:G57" r:id="rId24"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/hardwareSpecification.xlsx
+++ b/hardwareSpecification.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.5152"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="30765" windowHeight="15870" tabRatio="605"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="30765" windowHeight="15840" tabRatio="605"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Motor" sheetId="1" r:id="rId4"/>
@@ -16,341 +16,341 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="110">
   <x:si>
+    <x:t>Output Voltage : 1.25-35V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/1009241/STMICROELECTRONICS/NUCLEO-F446RE.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>충전율 : 1C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Controller</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Document</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Base Board</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NMEA0183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>방전율 : 35C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Size : 80*80 (mm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>continuous : 30A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltage : Power 5V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Joystick : 1 pcs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interface : Analog</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resolution : 500Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resolution : 1hPa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ETC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.digikey.kr/ko/products/detail/stmicroelectronics/NUCLEO-F446RE/5347712</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SMG] ToF 레이저 거리 측정 센서 모듈 UART I2C [ToF10120]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sampling rate : 1Hz up to 10Hz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/800241/SEMTECH/SX1278.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://files.banggood.com/2016/11/BN-220 GPS+Antenna datasheet.pdf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interface : SPI at 1Mbps(r/w), 20Mbps (read only)/ I2C at 400kbps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=3585</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100070769</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/1132069/BOSCH/BMP280.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100003773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100051572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/1132035/TDK/MPU-9250.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?&amp;goodsno=100003336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1321135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[GT-Drone] EC-X3 ESC for Multicopters (30A/OPTO/COB/6S)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Happy House] ESP32-C3 SuperMini 개발보드 블랙 [CMODULE-13]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[RTS] S3508-380KV Motor Set (12~13in/22.2V/ Wire 50cm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SMG] MPU-9250 아두이노 9축 자이로 센서 모듈 GY-9250 [SZH-EK037]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[MINGWU] XGZP040 공기압 압력 센서 모듈 [SZH-MIN029]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SMG] 아두이노 MicroSD 카드 소켓 모듈 [SZH-EKBZ-005]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interface : SPI at 10Mbps / I2C at 3.4Mbps</x:t>
+  </x:si>
+  <x:si>
     <x:t>[SMG] 아두이노 대기압/고도 센서 모듈 BMP280 [TYE-BMP28]</x:t>
   </x:si>
   <x:si>
-    <x:t>[SMG] 아두이노 MicroSD 카드 소켓 모듈 [SZH-EKBZ-005]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interface : SPI at 10Mbps / I2C at 3.4Mbps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[MINGWU] XGZP040 공기압 압력 센서 모듈 [SZH-MIN029]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>continuous : 30A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Output Voltage : 5V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Size : 80*80 (mm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resolution : 500Hz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resolution : 1hPa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voltage : Power 5V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Joystick : 1 pcs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interface : Analog</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/800241/SEMTECH/SX1278.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/1009241/STMICROELECTRONICS/NUCLEO-F446RE.html</x:t>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=12506362</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=14486677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=15193221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1341742</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VEGA 베가 그래핀 6셀 22.2V 3300mAh 35C 리튬 폴리머 배터리 (XT90)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1326951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=24848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1342892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=14584823</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=15139881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/M) 20cm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/F) 20cm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[CONNFLY (중국)] 핀헤더소켓 Single 1x40 Straight(2.54mm)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Ai-thinker] [정품] SX1278 433MHz LoRa 통신모듈 [Ra-01]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1376584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S500 쿼드콥터 드론 PDB 에디션 베이직 콤보 - 헤비리프트 사양 (1kg 페이로드)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1321195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=15525647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.devicemart.co.kr/goods/view?no=1321196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Beitian] 고정밀 미니 GPS 모듈 [BN-220]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interface : UART at 921600bps(max)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[STMicroelectronics ] NUCLEO-F401RE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor Mount Bolt Holes: 16~19~25mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[거상인] [ GA2 ] 80 x 80 사각 만능 기판 - 양면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltage : Power 3.3~5V, Signal 3.3V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltage : Power 5V, Signal 3.3~5V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maximum output current: 1A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DCDC-5V 강압 DC-DC컨버터 dip 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[(주)펌테크] Joystick Shield</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interface : SPI at 10Mbps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight: 445g (frame only)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Index</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sensor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Core</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Battery</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Motor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Price</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Link</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Power</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Interface : SPI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Button : 3 pcs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltage : 3.3V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weight : 435g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Axis : 9axis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diameter : 35mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock : 84MHz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Specification</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wi-FI 4 &amp; BT 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUCLEO-F446RE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock : 180MHz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weight : 23g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>weight : 106g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Output : 330W</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Speed : 380kv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Capa : 3300mAh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Max : 35A 10sec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Height: 288mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Frame Diameter: 500mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voltage : 22.2V (6S)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxCell : 6S (22.2V)</x:t>
   </x:si>
   <x:si>
     <x:t>Voltage : Power 3.3~5V</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=14486677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=3585</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.digikey.kr/ko/products/detail/stmicroelectronics/NUCLEO-F446RE/5347712</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[GT-Drone] EC-X3 ESC for Multicopters (30A/OPTO/COB/6S)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Happy House] ESP32-C3 SuperMini 개발보드 블랙 [CMODULE-13]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[RTS] S3508-380KV Motor Set (12~13in/22.2V/ Wire 50cm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[SMG] MPU-9250 아두이노 9축 자이로 센서 모듈 GY-9250 [SZH-EK037]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://files.banggood.com/2016/11/BN-220 GPS+Antenna datasheet.pdf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interface : SPI at 1Mbps(r/w), 20Mbps (read only)/ I2C at 400kbps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=1326951</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VEGA 베가 그래핀 6셀 22.2V 3300mAh 35C 리튬 폴리머 배터리 (XT90)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=1341742</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=1376584</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.eleparts.co.kr/goods/view?no=12663799</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=24848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=12506362</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Ai-thinker] [정품] SX1278 433MHz LoRa 통신모듈 [Ra-01]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=1342892</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=15525647</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=15193221</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S500 쿼드콥터 드론 PDB 에디션 베이직 콤보 - 헤비리프트 사양 (1kg 페이로드)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=14584823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=15139881</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sampling rate : 1Hz up to 10Hz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ETC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NMEA0183</x:t>
-  </x:si>
-  <x:si>
-    <x:t>방전율 : 35C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>충전율 : 1C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Document</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Base Board</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Controller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[거상인] [ GA2 ] 80 x 80 사각 만능 기판 - 양면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voltage : Power 3.3~5V, Signal 3.3V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor Mount Bolt Holes: 16~19~25mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voltage : Power 5V, Signal 3.3~5V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Beitian] 고정밀 미니 GPS 모듈 [BN-220]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interface : UART at 921600bps(max)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[STMicroelectronics ] NUCLEO-F401RE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100003773</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/1132069/BOSCH/BMP280.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100070769</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?goodsno=100051572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.alldatasheet.co.kr/datasheet-pdf/view/1132035/TDK/MPU-9250.html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.falconshop.co.kr/shop/goods/goods_view.php?&amp;goodsno=100003336</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[SMG] ToF 레이저 거리 측정 센서 모듈 UART I2C [ToF10120]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weight: 445g (frame only)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maximum output current: 1A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DCDC-5V 강압 DC-DC컨버터 dip 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[(주)펌테크] Joystick Shield</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interface : SPI at 10Mbps</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sensor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Battery</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Motor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Price</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Body</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Index</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Core</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Link</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Power</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interface : SPI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voltage : 3.3V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weight : 435g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Button : 3 pcs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weight : 106g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wi-FI 4 &amp; BT 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Capa : 3300mAh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>weight : 23g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clock : 84MHz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Height: 288mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUCLEO-F446RE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Specification</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Speed : 380kv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Max : 35A 10sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Clock : 180MHz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Output : 330W</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Axis : 9axis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diameter : 35mm</x:t>
+    <x:t>MaxConti : 22A 30sec</x:t>
   </x:si>
   <x:si>
     <x:t>Detailed specifications</x:t>
   </x:si>
   <x:si>
-    <x:t>Frame Diameter: 500mm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input Voltage : 6-30V</x:t>
+    <x:t>Interface : UART / I2C</x:t>
   </x:si>
   <x:si>
     <x:t>Sampling rate : 1000Hz</x:t>
   </x:si>
   <x:si>
-    <x:t>Voltage : 22.2V (6S)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxCell : 6S (22.2V)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MaxConti : 22A 30sec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Interface : UART / I2C</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=1321195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/M) 20cm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[CONNFLY (중국)] 핀헤더소켓 Single 1x40 Straight(2.54mm)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.devicemart.co.kr/goods/view?no=1321196</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[KEYES] 테스트[CH254] 소켓 점퍼 케이블 40P (칼라) (M/F) 20cm</x:t>
+    <x:t>Input Voltage : 5-32V</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="12">
+  <x:fonts count="13">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -428,6 +428,27 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff467886"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff467886"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="8"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineType val="1"/>
+          <hs:underlineColor rgb="ff0000ff"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -438,7 +459,7 @@
         <x:font>
           <x:name val="맑은 고딕"/>
           <x:sz val="8"/>
-          <x:color rgb="ff467886"/>
+          <x:color rgb="ff0000ff"/>
           <x:u/>
         </x:font>
       </mc:Fallback>
@@ -484,13 +505,19 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="fffff0b3"/>
+        <x:fgColor rgb="ffffbdad"/>
         <x:bgColor auto="1"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="ffffbdad"/>
+        <x:fgColor rgb="ff9be5c8"/>
+        <x:bgColor auto="1"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="fffff0b3"/>
         <x:bgColor auto="1"/>
       </x:patternFill>
     </x:fill>
@@ -509,12 +536,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ffabf5d1"/>
-        <x:bgColor auto="1"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="ff9be5c8"/>
         <x:bgColor auto="1"/>
       </x:patternFill>
     </x:fill>
@@ -585,7 +606,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="32">
+  <x:cellXfs count="33">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -632,34 +653,6 @@
     </x:xf>
     <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -687,6 +680,63 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
@@ -696,19 +746,6 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -726,37 +763,37 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -772,44 +809,31 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
@@ -1614,8 +1638,8 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="B2:I60"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="G42" activeCellId="0" sqref="G42:G43"/>
+    <x:sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D29" activeCellId="0" sqref="D29:D29"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="10.699999999999999"/>
@@ -1633,817 +1657,821 @@
   <x:sheetData>
     <x:row r="1" ht="14.1" customHeight="1"/>
     <x:row r="2" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B2" s="11" t="s">
+      <x:c r="B2" s="14" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C2" s="14" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D2" s="14" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E2" s="14" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="F2" s="14" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="G2" s="14" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H2" s="14" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="I2" s="14" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="C2" s="11" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D2" s="11" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E2" s="11" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="F2" s="11" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G2" s="11" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H2" s="11" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="I2" s="11" t="s">
-        <x:v>76</x:v>
-      </x:c>
     </x:row>
     <x:row r="3" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B3" s="11"/>
-      <x:c r="C3" s="11"/>
-      <x:c r="D3" s="11"/>
-      <x:c r="E3" s="11"/>
-      <x:c r="F3" s="11"/>
-      <x:c r="G3" s="11"/>
-      <x:c r="H3" s="11"/>
-      <x:c r="I3" s="11"/>
+      <x:c r="B3" s="14"/>
+      <x:c r="C3" s="14"/>
+      <x:c r="D3" s="14"/>
+      <x:c r="E3" s="14"/>
+      <x:c r="F3" s="14"/>
+      <x:c r="G3" s="14"/>
+      <x:c r="H3" s="14"/>
+      <x:c r="I3" s="14"/>
     </x:row>
     <x:row r="4" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B4" s="17" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C4" s="13" t="s">
-        <x:v>35</x:v>
+      <x:c r="B4" s="20" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C4" s="16" t="s">
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D4" s="5" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E4" s="13"/>
-      <x:c r="F4" s="14">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="E4" s="16"/>
+      <x:c r="F4" s="17">
         <x:v>278000</x:v>
       </x:c>
-      <x:c r="G4" s="12" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H4" s="13"/>
-      <x:c r="I4" s="9">
+      <x:c r="G4" s="15" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="16"/>
+      <x:c r="I4" s="12">
         <x:f>F4</x:f>
         <x:v>278000</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B5" s="17"/>
-      <x:c r="C5" s="13"/>
+      <x:c r="B5" s="20"/>
+      <x:c r="C5" s="16"/>
       <x:c r="D5" s="5" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E5" s="16"/>
+      <x:c r="F5" s="17"/>
+      <x:c r="G5" s="15"/>
+      <x:c r="H5" s="16"/>
+      <x:c r="I5" s="12"/>
+    </x:row>
+    <x:row r="6" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B6" s="20"/>
+      <x:c r="C6" s="16"/>
+      <x:c r="D6" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E6" s="16"/>
+      <x:c r="F6" s="17"/>
+      <x:c r="G6" s="15"/>
+      <x:c r="H6" s="16"/>
+      <x:c r="I6" s="12"/>
+    </x:row>
+    <x:row r="7" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B7" s="20"/>
+      <x:c r="C7" s="16"/>
+      <x:c r="D7" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E7" s="16"/>
+      <x:c r="F7" s="17"/>
+      <x:c r="G7" s="15"/>
+      <x:c r="H7" s="16"/>
+      <x:c r="I7" s="12"/>
+    </x:row>
+    <x:row r="8" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B8" s="29" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="23" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E8" s="23"/>
+      <x:c r="F8" s="24">
+        <x:v>14800</x:v>
+      </x:c>
+      <x:c r="G8" s="25" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H8" s="23"/>
+      <x:c r="I8" s="26" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B9" s="29"/>
+      <x:c r="C9" s="23"/>
+      <x:c r="D9" s="4" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E9" s="23"/>
+      <x:c r="F9" s="24"/>
+      <x:c r="G9" s="25"/>
+      <x:c r="H9" s="23"/>
+      <x:c r="I9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B10" s="29"/>
+      <x:c r="C10" s="23"/>
+      <x:c r="D10" s="4" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E10" s="23"/>
+      <x:c r="F10" s="24"/>
+      <x:c r="G10" s="25"/>
+      <x:c r="H10" s="23"/>
+      <x:c r="I10" s="27"/>
+    </x:row>
+    <x:row r="11" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B11" s="29"/>
+      <x:c r="C11" s="23"/>
+      <x:c r="D11" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E11" s="23"/>
+      <x:c r="F11" s="24"/>
+      <x:c r="G11" s="25"/>
+      <x:c r="H11" s="23"/>
+      <x:c r="I11" s="27"/>
+    </x:row>
+    <x:row r="12" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B12" s="30" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C12" s="23" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E12" s="23"/>
+      <x:c r="F12" s="24">
+        <x:v>39800</x:v>
+      </x:c>
+      <x:c r="G12" s="25" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H12" s="23"/>
+      <x:c r="I12" s="28" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B13" s="30"/>
+      <x:c r="C13" s="23"/>
+      <x:c r="D13" s="4" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E13" s="23"/>
+      <x:c r="F13" s="24"/>
+      <x:c r="G13" s="25"/>
+      <x:c r="H13" s="23"/>
+      <x:c r="I13" s="28"/>
+    </x:row>
+    <x:row r="14" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B14" s="30"/>
+      <x:c r="C14" s="23"/>
+      <x:c r="D14" s="4" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="E5" s="13"/>
-      <x:c r="F5" s="14"/>
-      <x:c r="G5" s="12"/>
-      <x:c r="H5" s="13"/>
-      <x:c r="I5" s="9"/>
-    </x:row>
-    <x:row r="6" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B6" s="17"/>
-      <x:c r="C6" s="13"/>
-      <x:c r="D6" s="5" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E6" s="13"/>
-      <x:c r="F6" s="14"/>
-      <x:c r="G6" s="12"/>
-      <x:c r="H6" s="13"/>
-      <x:c r="I6" s="9"/>
-    </x:row>
-    <x:row r="7" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B7" s="17"/>
-      <x:c r="C7" s="13"/>
-      <x:c r="D7" s="4" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="E7" s="13"/>
-      <x:c r="F7" s="14"/>
-      <x:c r="G7" s="12"/>
-      <x:c r="H7" s="13"/>
-      <x:c r="I7" s="9"/>
-    </x:row>
-    <x:row r="8" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B8" s="26" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C8" s="20" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E8" s="20"/>
-      <x:c r="F8" s="21">
-        <x:v>14800</x:v>
-      </x:c>
-      <x:c r="G8" s="22" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="H8" s="20"/>
-      <x:c r="I8" s="23" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B9" s="26"/>
-      <x:c r="C9" s="20"/>
-      <x:c r="D9" s="4" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E9" s="20"/>
-      <x:c r="F9" s="21"/>
-      <x:c r="G9" s="22"/>
-      <x:c r="H9" s="20"/>
-      <x:c r="I9" s="24"/>
-    </x:row>
-    <x:row r="10" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B10" s="26"/>
-      <x:c r="C10" s="20"/>
-      <x:c r="D10" s="4" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="E10" s="20"/>
-      <x:c r="F10" s="21"/>
-      <x:c r="G10" s="22"/>
-      <x:c r="H10" s="20"/>
-      <x:c r="I10" s="24"/>
-    </x:row>
-    <x:row r="11" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B11" s="26"/>
-      <x:c r="C11" s="20"/>
-      <x:c r="D11" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E11" s="20"/>
-      <x:c r="F11" s="21"/>
-      <x:c r="G11" s="22"/>
-      <x:c r="H11" s="20"/>
-      <x:c r="I11" s="24"/>
-    </x:row>
-    <x:row r="12" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B12" s="27" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C12" s="20" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D12" s="4" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E12" s="20"/>
-      <x:c r="F12" s="21">
-        <x:v>39800</x:v>
-      </x:c>
-      <x:c r="G12" s="22" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H12" s="20"/>
-      <x:c r="I12" s="25" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B13" s="27"/>
-      <x:c r="C13" s="20"/>
-      <x:c r="D13" s="4" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E13" s="20"/>
-      <x:c r="F13" s="21"/>
-      <x:c r="G13" s="22"/>
-      <x:c r="H13" s="20"/>
-      <x:c r="I13" s="25"/>
-    </x:row>
-    <x:row r="14" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B14" s="27"/>
-      <x:c r="C14" s="20"/>
-      <x:c r="D14" s="4" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="E14" s="20"/>
-      <x:c r="F14" s="21"/>
-      <x:c r="G14" s="22"/>
-      <x:c r="H14" s="20"/>
-      <x:c r="I14" s="25"/>
+      <x:c r="E14" s="23"/>
+      <x:c r="F14" s="24"/>
+      <x:c r="G14" s="25"/>
+      <x:c r="H14" s="23"/>
+      <x:c r="I14" s="28"/>
     </x:row>
     <x:row r="15" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B15" s="27"/>
-      <x:c r="C15" s="20"/>
+      <x:c r="B15" s="30"/>
+      <x:c r="C15" s="23"/>
       <x:c r="D15" s="4" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="E15" s="20"/>
-      <x:c r="F15" s="21"/>
-      <x:c r="G15" s="22"/>
-      <x:c r="H15" s="20"/>
-      <x:c r="I15" s="25"/>
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="E15" s="23"/>
+      <x:c r="F15" s="24"/>
+      <x:c r="G15" s="25"/>
+      <x:c r="H15" s="23"/>
+      <x:c r="I15" s="28"/>
     </x:row>
     <x:row r="16" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B16" s="27"/>
-      <x:c r="C16" s="20"/>
+      <x:c r="B16" s="30"/>
+      <x:c r="C16" s="23"/>
       <x:c r="D16" s="4" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E16" s="23"/>
+      <x:c r="F16" s="24"/>
+      <x:c r="G16" s="25"/>
+      <x:c r="H16" s="23"/>
+      <x:c r="I16" s="28"/>
+    </x:row>
+    <x:row r="17" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B17" s="30"/>
+      <x:c r="C17" s="23"/>
+      <x:c r="D17" s="4" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E17" s="23"/>
+      <x:c r="F17" s="24"/>
+      <x:c r="G17" s="25"/>
+      <x:c r="H17" s="23"/>
+      <x:c r="I17" s="28"/>
+    </x:row>
+    <x:row r="18" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B18" s="31" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C18" s="23" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D18" s="4" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="E16" s="20"/>
-      <x:c r="F16" s="21"/>
-      <x:c r="G16" s="22"/>
-      <x:c r="H16" s="20"/>
-      <x:c r="I16" s="25"/>
-    </x:row>
-    <x:row r="17" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B17" s="27"/>
-      <x:c r="C17" s="20"/>
-      <x:c r="D17" s="4" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E17" s="20"/>
-      <x:c r="F17" s="21"/>
-      <x:c r="G17" s="22"/>
-      <x:c r="H17" s="20"/>
-      <x:c r="I17" s="25"/>
-    </x:row>
-    <x:row r="18" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B18" s="28" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C18" s="20" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="D18" s="4" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="E18" s="20"/>
-      <x:c r="F18" s="21">
+      <x:c r="E18" s="23"/>
+      <x:c r="F18" s="24">
         <x:v>85000</x:v>
       </x:c>
-      <x:c r="G18" s="22" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H18" s="20"/>
-      <x:c r="I18" s="23">
+      <x:c r="G18" s="25" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H18" s="23"/>
+      <x:c r="I18" s="26">
         <x:f>F18</x:f>
         <x:v>85000</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B19" s="28"/>
-      <x:c r="C19" s="20"/>
+      <x:c r="B19" s="31"/>
+      <x:c r="C19" s="23"/>
       <x:c r="D19" s="4" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E19" s="20"/>
-      <x:c r="F19" s="21"/>
-      <x:c r="G19" s="22"/>
-      <x:c r="H19" s="20"/>
-      <x:c r="I19" s="24"/>
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="E19" s="23"/>
+      <x:c r="F19" s="24"/>
+      <x:c r="G19" s="25"/>
+      <x:c r="H19" s="23"/>
+      <x:c r="I19" s="27"/>
     </x:row>
     <x:row r="20" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B20" s="28"/>
-      <x:c r="C20" s="20"/>
+      <x:c r="B20" s="31"/>
+      <x:c r="C20" s="23"/>
       <x:c r="D20" s="4" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E20" s="20"/>
-      <x:c r="F20" s="21"/>
-      <x:c r="G20" s="22"/>
-      <x:c r="H20" s="20"/>
-      <x:c r="I20" s="24"/>
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E20" s="23"/>
+      <x:c r="F20" s="24"/>
+      <x:c r="G20" s="25"/>
+      <x:c r="H20" s="23"/>
+      <x:c r="I20" s="27"/>
     </x:row>
     <x:row r="21" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B21" s="28"/>
-      <x:c r="C21" s="20"/>
+      <x:c r="B21" s="31"/>
+      <x:c r="C21" s="23"/>
       <x:c r="D21" s="4" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E21" s="20"/>
-      <x:c r="F21" s="21"/>
-      <x:c r="G21" s="22"/>
-      <x:c r="H21" s="20"/>
-      <x:c r="I21" s="24"/>
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E21" s="23"/>
+      <x:c r="F21" s="24"/>
+      <x:c r="G21" s="25"/>
+      <x:c r="H21" s="23"/>
+      <x:c r="I21" s="27"/>
     </x:row>
     <x:row r="22" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B22" s="28"/>
-      <x:c r="C22" s="20"/>
+      <x:c r="B22" s="31"/>
+      <x:c r="C22" s="23"/>
       <x:c r="D22" s="4" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E22" s="20"/>
-      <x:c r="F22" s="21"/>
-      <x:c r="G22" s="22"/>
-      <x:c r="H22" s="20"/>
-      <x:c r="I22" s="24"/>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E22" s="23"/>
+      <x:c r="F22" s="24"/>
+      <x:c r="G22" s="25"/>
+      <x:c r="H22" s="23"/>
+      <x:c r="I22" s="27"/>
     </x:row>
     <x:row r="23" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B23" s="19" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C23" s="13" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D23" s="13" t="s">
+      <x:c r="B23" s="22" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C23" s="16" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D23" s="16" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="E23" s="13"/>
-      <x:c r="F23" s="14">
+      <x:c r="E23" s="16"/>
+      <x:c r="F23" s="17">
         <x:v>22239</x:v>
       </x:c>
-      <x:c r="G23" s="12" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H23" s="12" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="I23" s="9">
+      <x:c r="G23" s="15" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="H23" s="15" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I23" s="12">
         <x:f>F23*3</x:f>
         <x:v>66717</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B24" s="19"/>
-      <x:c r="C24" s="13"/>
-      <x:c r="D24" s="13"/>
-      <x:c r="E24" s="13"/>
-      <x:c r="F24" s="14"/>
-      <x:c r="G24" s="12"/>
-      <x:c r="H24" s="12"/>
-      <x:c r="I24" s="10"/>
+      <x:c r="B24" s="22"/>
+      <x:c r="C24" s="16"/>
+      <x:c r="D24" s="16"/>
+      <x:c r="E24" s="16"/>
+      <x:c r="F24" s="17"/>
+      <x:c r="G24" s="15"/>
+      <x:c r="H24" s="15"/>
+      <x:c r="I24" s="13"/>
     </x:row>
     <x:row r="25" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B25" s="18" t="s">
+      <x:c r="B25" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C25" s="16" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D25" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E25" s="16"/>
+      <x:c r="F25" s="17">
+        <x:v>4730</x:v>
+      </x:c>
+      <x:c r="G25" s="15" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C25" s="13" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D25" s="13" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E25" s="13"/>
-      <x:c r="F25" s="14">
-        <x:v>4730</x:v>
-      </x:c>
-      <x:c r="G25" s="12" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H25" s="13"/>
-      <x:c r="I25" s="9">
+      <x:c r="H25" s="16"/>
+      <x:c r="I25" s="12">
         <x:f>F25</x:f>
         <x:v>4730</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B26" s="18"/>
-      <x:c r="C26" s="13"/>
-      <x:c r="D26" s="13"/>
-      <x:c r="E26" s="13"/>
-      <x:c r="F26" s="14"/>
-      <x:c r="G26" s="12"/>
-      <x:c r="H26" s="13"/>
-      <x:c r="I26" s="10"/>
+      <x:c r="B26" s="21"/>
+      <x:c r="C26" s="16"/>
+      <x:c r="D26" s="16"/>
+      <x:c r="E26" s="16"/>
+      <x:c r="F26" s="17"/>
+      <x:c r="G26" s="15"/>
+      <x:c r="H26" s="16"/>
+      <x:c r="I26" s="13"/>
     </x:row>
     <x:row r="27" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B27" s="17" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C27" s="13" t="s">
-        <x:v>65</x:v>
+      <x:c r="B27" s="20" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C27" s="16" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D27" s="5" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E27" s="13"/>
-      <x:c r="F27" s="14">
-        <x:v>2838</x:v>
-      </x:c>
-      <x:c r="G27" s="12" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H27" s="13"/>
-      <x:c r="I27" s="9">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E27" s="16"/>
+      <x:c r="F27" s="17">
+        <x:v>2640</x:v>
+      </x:c>
+      <x:c r="G27" s="32" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H27" s="16"/>
+      <x:c r="I27" s="12">
         <x:f>F27</x:f>
-        <x:v>2838</x:v>
+        <x:v>2640</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B28" s="17"/>
-      <x:c r="C28" s="13"/>
+      <x:c r="B28" s="20"/>
+      <x:c r="C28" s="16"/>
       <x:c r="D28" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E28" s="13"/>
-      <x:c r="F28" s="14"/>
-      <x:c r="G28" s="12"/>
-      <x:c r="H28" s="13"/>
-      <x:c r="I28" s="10"/>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E28" s="16"/>
+      <x:c r="F28" s="17">
+        <x:v>2640</x:v>
+      </x:c>
+      <x:c r="G28" s="32"/>
+      <x:c r="H28" s="16"/>
+      <x:c r="I28" s="13"/>
     </x:row>
     <x:row r="29" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B29" s="17"/>
-      <x:c r="C29" s="13"/>
+      <x:c r="B29" s="20"/>
+      <x:c r="C29" s="16"/>
       <x:c r="D29" s="5" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E29" s="13"/>
-      <x:c r="F29" s="14"/>
-      <x:c r="G29" s="12"/>
-      <x:c r="H29" s="13"/>
-      <x:c r="I29" s="10"/>
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E29" s="16"/>
+      <x:c r="F29" s="17">
+        <x:v>2640</x:v>
+      </x:c>
+      <x:c r="G29" s="32"/>
+      <x:c r="H29" s="16"/>
+      <x:c r="I29" s="13"/>
     </x:row>
     <x:row r="30" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B30" s="16" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C30" s="13" t="s">
-        <x:v>21</x:v>
+      <x:c r="B30" s="19" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C30" s="16" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D30" s="5" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E30" s="13"/>
-      <x:c r="F30" s="14">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E30" s="16"/>
+      <x:c r="F30" s="17">
         <x:v>17600</x:v>
       </x:c>
-      <x:c r="G30" s="12" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H30" s="12" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="I30" s="9">
+      <x:c r="G30" s="15" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H30" s="15" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I30" s="12">
         <x:f>F30</x:f>
         <x:v>17600</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B31" s="16"/>
-      <x:c r="C31" s="13"/>
+      <x:c r="B31" s="19"/>
+      <x:c r="C31" s="16"/>
       <x:c r="D31" s="5" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E31" s="16"/>
+      <x:c r="F31" s="17"/>
+      <x:c r="G31" s="15"/>
+      <x:c r="H31" s="15"/>
+      <x:c r="I31" s="13"/>
+    </x:row>
+    <x:row r="32" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B32" s="19"/>
+      <x:c r="C32" s="16"/>
+      <x:c r="D32" s="5" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E32" s="16"/>
+      <x:c r="F32" s="17"/>
+      <x:c r="G32" s="15"/>
+      <x:c r="H32" s="15"/>
+      <x:c r="I32" s="13"/>
+    </x:row>
+    <x:row r="33" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B33" s="19"/>
+      <x:c r="C33" s="16"/>
+      <x:c r="D33" s="5" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E33" s="16"/>
+      <x:c r="F33" s="17"/>
+      <x:c r="G33" s="15"/>
+      <x:c r="H33" s="15"/>
+      <x:c r="I33" s="13"/>
+    </x:row>
+    <x:row r="34" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B34" s="19"/>
+      <x:c r="C34" s="16" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D34" s="5" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E34" s="16" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F34" s="17">
+        <x:v>30800</x:v>
+      </x:c>
+      <x:c r="G34" s="15" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="E31" s="13"/>
-      <x:c r="F31" s="14"/>
-      <x:c r="G31" s="12"/>
-      <x:c r="H31" s="12"/>
-      <x:c r="I31" s="10"/>
-    </x:row>
-    <x:row r="32" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B32" s="16"/>
-      <x:c r="C32" s="13"/>
-      <x:c r="D32" s="5" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="E32" s="13"/>
-      <x:c r="F32" s="14"/>
-      <x:c r="G32" s="12"/>
-      <x:c r="H32" s="12"/>
-      <x:c r="I32" s="10"/>
-    </x:row>
-    <x:row r="33" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B33" s="16"/>
-      <x:c r="C33" s="13"/>
-      <x:c r="D33" s="5" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="E33" s="13"/>
-      <x:c r="F33" s="14"/>
-      <x:c r="G33" s="12"/>
-      <x:c r="H33" s="12"/>
-      <x:c r="I33" s="10"/>
-    </x:row>
-    <x:row r="34" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B34" s="16"/>
-      <x:c r="C34" s="13" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D34" s="5" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="E34" s="13" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F34" s="14">
-        <x:v>30800</x:v>
-      </x:c>
-      <x:c r="G34" s="12" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H34" s="12" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="I34" s="9">
+      <x:c r="H34" s="15" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I34" s="12">
         <x:f>F34</x:f>
         <x:v>30800</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B35" s="16"/>
-      <x:c r="C35" s="13"/>
+      <x:c r="B35" s="19"/>
+      <x:c r="C35" s="16"/>
       <x:c r="D35" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E35" s="13"/>
-      <x:c r="F35" s="14"/>
-      <x:c r="G35" s="12"/>
-      <x:c r="H35" s="12"/>
-      <x:c r="I35" s="10"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E35" s="16"/>
+      <x:c r="F35" s="17"/>
+      <x:c r="G35" s="15"/>
+      <x:c r="H35" s="15"/>
+      <x:c r="I35" s="13"/>
     </x:row>
     <x:row r="36" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B36" s="16"/>
-      <x:c r="C36" s="13"/>
+      <x:c r="B36" s="19"/>
+      <x:c r="C36" s="16"/>
       <x:c r="D36" s="5" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E36" s="13"/>
-      <x:c r="F36" s="14"/>
-      <x:c r="G36" s="12"/>
-      <x:c r="H36" s="12"/>
-      <x:c r="I36" s="10"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E36" s="16"/>
+      <x:c r="F36" s="17"/>
+      <x:c r="G36" s="15"/>
+      <x:c r="H36" s="15"/>
+      <x:c r="I36" s="13"/>
     </x:row>
     <x:row r="37" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B37" s="16"/>
-      <x:c r="C37" s="13" t="s">
-        <x:v>0</x:v>
+      <x:c r="B37" s="19"/>
+      <x:c r="C37" s="16" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="D37" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E37" s="13"/>
-      <x:c r="F37" s="14">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E37" s="16"/>
+      <x:c r="F37" s="17">
         <x:v>2200</x:v>
       </x:c>
-      <x:c r="G37" s="12" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="H37" s="12" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I37" s="9">
+      <x:c r="G37" s="15" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="H37" s="15" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I37" s="12">
         <x:f>F37</x:f>
         <x:v>2200</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B38" s="16"/>
-      <x:c r="C38" s="13"/>
+      <x:c r="B38" s="19"/>
+      <x:c r="C38" s="16"/>
       <x:c r="D38" s="5" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E38" s="13"/>
-      <x:c r="F38" s="14"/>
-      <x:c r="G38" s="12"/>
-      <x:c r="H38" s="12"/>
-      <x:c r="I38" s="10"/>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E38" s="16"/>
+      <x:c r="F38" s="17"/>
+      <x:c r="G38" s="15"/>
+      <x:c r="H38" s="15"/>
+      <x:c r="I38" s="13"/>
     </x:row>
     <x:row r="39" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B39" s="16"/>
-      <x:c r="C39" s="13"/>
+      <x:c r="B39" s="19"/>
+      <x:c r="C39" s="16"/>
       <x:c r="D39" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E39" s="13"/>
-      <x:c r="F39" s="14"/>
-      <x:c r="G39" s="12"/>
-      <x:c r="H39" s="12"/>
-      <x:c r="I39" s="10"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E39" s="16"/>
+      <x:c r="F39" s="17"/>
+      <x:c r="G39" s="15"/>
+      <x:c r="H39" s="15"/>
+      <x:c r="I39" s="13"/>
     </x:row>
     <x:row r="40" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B40" s="16"/>
-      <x:c r="C40" s="13" t="s">
-        <x:v>3</x:v>
+      <x:c r="B40" s="19"/>
+      <x:c r="C40" s="16" t="s">
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D40" s="5" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E40" s="13"/>
-      <x:c r="F40" s="14">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E40" s="16"/>
+      <x:c r="F40" s="17">
         <x:v>5500</x:v>
       </x:c>
-      <x:c r="G40" s="12" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H40" s="13"/>
-      <x:c r="I40" s="9">
+      <x:c r="G40" s="15" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H40" s="16"/>
+      <x:c r="I40" s="12">
         <x:f>F40</x:f>
         <x:v>5500</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B41" s="16"/>
-      <x:c r="C41" s="13"/>
+      <x:c r="B41" s="19"/>
+      <x:c r="C41" s="16"/>
       <x:c r="D41" s="5" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E41" s="13"/>
-      <x:c r="F41" s="14"/>
-      <x:c r="G41" s="12"/>
-      <x:c r="H41" s="13"/>
-      <x:c r="I41" s="10"/>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E41" s="16"/>
+      <x:c r="F41" s="17"/>
+      <x:c r="G41" s="15"/>
+      <x:c r="H41" s="16"/>
+      <x:c r="I41" s="13"/>
     </x:row>
     <x:row r="42" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B42" s="16"/>
-      <x:c r="C42" s="13" t="s">
-        <x:v>1</x:v>
+      <x:c r="B42" s="19"/>
+      <x:c r="C42" s="16" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D42" s="5" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E42" s="13"/>
-      <x:c r="F42" s="14">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="E42" s="16"/>
+      <x:c r="F42" s="17">
         <x:v>1100</x:v>
       </x:c>
-      <x:c r="G42" s="12" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H42" s="13"/>
-      <x:c r="I42" s="9">
+      <x:c r="G42" s="15" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H42" s="16"/>
+      <x:c r="I42" s="12">
         <x:f>F42</x:f>
         <x:v>1100</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B43" s="16"/>
-      <x:c r="C43" s="13"/>
+      <x:c r="B43" s="19"/>
+      <x:c r="C43" s="16"/>
       <x:c r="D43" s="5" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E43" s="13"/>
-      <x:c r="F43" s="14"/>
-      <x:c r="G43" s="12"/>
-      <x:c r="H43" s="13"/>
-      <x:c r="I43" s="10"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E43" s="16"/>
+      <x:c r="F43" s="17"/>
+      <x:c r="G43" s="15"/>
+      <x:c r="H43" s="16"/>
+      <x:c r="I43" s="13"/>
     </x:row>
     <x:row r="44" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B44" s="16"/>
-      <x:c r="C44" s="13" t="s">
-        <x:v>19</x:v>
+      <x:c r="B44" s="19"/>
+      <x:c r="C44" s="16" t="s">
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D44" s="5" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E44" s="13"/>
-      <x:c r="F44" s="14">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E44" s="16"/>
+      <x:c r="F44" s="17">
         <x:v>7700</x:v>
       </x:c>
-      <x:c r="G44" s="12" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H44" s="13"/>
-      <x:c r="I44" s="9">
+      <x:c r="G44" s="15" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H44" s="16"/>
+      <x:c r="I44" s="12">
         <x:f>F44</x:f>
         <x:v>7700</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B45" s="16"/>
-      <x:c r="C45" s="13"/>
+      <x:c r="B45" s="19"/>
+      <x:c r="C45" s="16"/>
       <x:c r="D45" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="E45" s="13"/>
-      <x:c r="F45" s="14"/>
-      <x:c r="G45" s="12"/>
-      <x:c r="H45" s="13"/>
-      <x:c r="I45" s="10"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E45" s="16"/>
+      <x:c r="F45" s="17"/>
+      <x:c r="G45" s="15"/>
+      <x:c r="H45" s="16"/>
+      <x:c r="I45" s="13"/>
     </x:row>
     <x:row r="46" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B46" s="29"/>
-      <x:c r="C46" s="20" t="s">
-        <x:v>62</x:v>
+      <x:c r="B46" s="9"/>
+      <x:c r="C46" s="23" t="s">
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D46" s="4" t="s">
-        <x:v>104</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="E46" s="4"/>
-      <x:c r="F46" s="21">
+      <x:c r="F46" s="24">
         <x:v>13000</x:v>
       </x:c>
-      <x:c r="G46" s="22" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H46" s="20"/>
-      <x:c r="I46" s="23">
+      <x:c r="G46" s="25" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H46" s="23"/>
+      <x:c r="I46" s="26">
         <x:f>F46</x:f>
         <x:v>13000</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B47" s="29"/>
-      <x:c r="C47" s="20"/>
+      <x:c r="B47" s="9"/>
+      <x:c r="C47" s="23"/>
       <x:c r="D47" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E47" s="4"/>
-      <x:c r="F47" s="21"/>
-      <x:c r="G47" s="22"/>
-      <x:c r="H47" s="20"/>
-      <x:c r="I47" s="25"/>
+      <x:c r="F47" s="24"/>
+      <x:c r="G47" s="25"/>
+      <x:c r="H47" s="23"/>
+      <x:c r="I47" s="28"/>
     </x:row>
     <x:row r="48" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B48" s="29"/>
-      <x:c r="C48" s="20"/>
+      <x:c r="B48" s="9"/>
+      <x:c r="C48" s="23"/>
       <x:c r="D48" s="4"/>
       <x:c r="E48" s="4"/>
-      <x:c r="F48" s="21"/>
-      <x:c r="G48" s="22"/>
-      <x:c r="H48" s="20"/>
-      <x:c r="I48" s="25"/>
+      <x:c r="F48" s="24"/>
+      <x:c r="G48" s="25"/>
+      <x:c r="H48" s="23"/>
+      <x:c r="I48" s="28"/>
     </x:row>
     <x:row r="49" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B49" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C49" s="13" t="s">
-        <x:v>66</x:v>
+      <x:c r="B49" s="18" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C49" s="16" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D49" s="4" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E49" s="13"/>
-      <x:c r="F49" s="14">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E49" s="16"/>
+      <x:c r="F49" s="17">
         <x:v>22000</x:v>
       </x:c>
-      <x:c r="G49" s="12" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H49" s="13"/>
-      <x:c r="I49" s="9">
+      <x:c r="G49" s="15" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H49" s="16"/>
+      <x:c r="I49" s="12">
         <x:f>F49</x:f>
         <x:v>22000</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B50" s="15"/>
-      <x:c r="C50" s="13"/>
+      <x:c r="B50" s="18"/>
+      <x:c r="C50" s="16"/>
       <x:c r="D50" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E50" s="13"/>
-      <x:c r="F50" s="14"/>
-      <x:c r="G50" s="12"/>
-      <x:c r="H50" s="13"/>
-      <x:c r="I50" s="10"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E50" s="16"/>
+      <x:c r="F50" s="17"/>
+      <x:c r="G50" s="15"/>
+      <x:c r="H50" s="16"/>
+      <x:c r="I50" s="13"/>
     </x:row>
     <x:row r="51" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B51" s="15"/>
+      <x:c r="B51" s="18"/>
       <x:c r="C51" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D51" s="5" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E51" s="5"/>
       <x:c r="F51" s="6">
         <x:v>25300</x:v>
       </x:c>
       <x:c r="G51" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="H51" s="5"/>
       <x:c r="I51" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="2:9" ht="14.1" customHeight="1">
+      <x:c r="B52" s="18"/>
+      <x:c r="C52" s="16" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D52" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E52" s="16"/>
+      <x:c r="F52" s="17">
+        <x:v>8580</x:v>
+      </x:c>
+      <x:c r="G52" s="15" t="s">
         <x:v>41</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B52" s="15"/>
-      <x:c r="C52" s="13" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="D52" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E52" s="13"/>
-      <x:c r="F52" s="14">
-        <x:v>8580</x:v>
-      </x:c>
-      <x:c r="G52" s="12" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="H52" s="12" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I52" s="9">
+      <x:c r="H52" s="15" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I52" s="12">
         <x:f>F52*2</x:f>
         <x:v>17160</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B53" s="15"/>
-      <x:c r="C53" s="13"/>
+      <x:c r="B53" s="18"/>
+      <x:c r="C53" s="16"/>
       <x:c r="D53" s="5" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E53" s="13"/>
-      <x:c r="F53" s="14"/>
-      <x:c r="G53" s="12"/>
-      <x:c r="H53" s="12"/>
-      <x:c r="I53" s="10"/>
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E53" s="16"/>
+      <x:c r="F53" s="17"/>
+      <x:c r="G53" s="15"/>
+      <x:c r="H53" s="15"/>
+      <x:c r="I53" s="13"/>
     </x:row>
     <x:row r="54" spans="2:8" ht="14.1" customHeight="1">
-      <x:c r="B54" s="15"/>
+      <x:c r="B54" s="18"/>
       <x:c r="C54" s="5"/>
       <x:c r="D54" s="5"/>
       <x:c r="E54" s="5"/>
@@ -2452,19 +2480,19 @@
       <x:c r="H54" s="5"/>
     </x:row>
     <x:row r="55" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B55" s="30" t="s">
-        <x:v>42</x:v>
+      <x:c r="B55" s="10" t="s">
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C55" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D55" s="4"/>
       <x:c r="E55" s="4"/>
       <x:c r="F55" s="4">
         <x:v>528</x:v>
       </x:c>
-      <x:c r="G55" s="31" t="s">
-        <x:v>16</x:v>
+      <x:c r="G55" s="11" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H55" s="4"/>
       <x:c r="I55" s="2">
@@ -2473,17 +2501,17 @@
       </x:c>
     </x:row>
     <x:row r="56" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B56" s="30"/>
+      <x:c r="B56" s="10"/>
       <x:c r="C56" s="4" t="s">
-        <x:v>106</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D56" s="4"/>
       <x:c r="E56" s="4"/>
       <x:c r="F56" s="4">
         <x:v>935</x:v>
       </x:c>
-      <x:c r="G56" s="31" t="s">
-        <x:v>108</x:v>
+      <x:c r="G56" s="11" t="s">
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H56" s="4"/>
       <x:c r="I56" s="2">
@@ -2492,17 +2520,17 @@
       </x:c>
     </x:row>
     <x:row r="57" spans="2:9" ht="14.1" customHeight="1">
-      <x:c r="B57" s="30"/>
+      <x:c r="B57" s="10"/>
       <x:c r="C57" s="4" t="s">
-        <x:v>109</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D57" s="4"/>
       <x:c r="E57" s="4"/>
       <x:c r="F57" s="4">
         <x:v>935</x:v>
       </x:c>
-      <x:c r="G57" s="31" t="s">
-        <x:v>105</x:v>
+      <x:c r="G57" s="11" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H57" s="4"/>
       <x:c r="I57" s="2">
@@ -2511,7 +2539,7 @@
       </x:c>
     </x:row>
     <x:row r="58" spans="2:8" ht="14.1" customHeight="1">
-      <x:c r="B58" s="30"/>
+      <x:c r="B58" s="10"/>
       <x:c r="C58" s="4"/>
       <x:c r="D58" s="4"/>
       <x:c r="E58" s="4"/>
@@ -2520,26 +2548,26 @@
       <x:c r="H58" s="4"/>
     </x:row>
     <x:row r="59" spans="2:9">
-      <x:c r="B59" s="11"/>
-      <x:c r="C59" s="13"/>
-      <x:c r="D59" s="13"/>
-      <x:c r="E59" s="13"/>
-      <x:c r="F59" s="14"/>
-      <x:c r="G59" s="13"/>
-      <x:c r="H59" s="13"/>
+      <x:c r="B59" s="14"/>
+      <x:c r="C59" s="16"/>
+      <x:c r="D59" s="16"/>
+      <x:c r="E59" s="16"/>
+      <x:c r="F59" s="17"/>
+      <x:c r="G59" s="16"/>
+      <x:c r="H59" s="16"/>
       <x:c r="I59" s="8">
         <x:f>SUM(I4:I53)</x:f>
-        <x:v>554345</x:v>
+        <x:v>554147</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:8">
-      <x:c r="B60" s="11"/>
-      <x:c r="C60" s="13"/>
-      <x:c r="D60" s="13"/>
-      <x:c r="E60" s="13"/>
-      <x:c r="F60" s="13"/>
-      <x:c r="G60" s="13"/>
-      <x:c r="H60" s="13"/>
+      <x:c r="B60" s="14"/>
+      <x:c r="C60" s="16"/>
+      <x:c r="D60" s="16"/>
+      <x:c r="E60" s="16"/>
+      <x:c r="F60" s="16"/>
+      <x:c r="G60" s="16"/>
+      <x:c r="H60" s="16"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="126">
@@ -2675,26 +2703,27 @@
     <x:hyperlink ref="G23:G23" r:id="rId2"/>
     <x:hyperlink ref="H23:H23" r:id="rId3"/>
     <x:hyperlink ref="G25:G25" r:id="rId4"/>
-    <x:hyperlink ref="G27:G27" r:id="rId5"/>
-    <x:hyperlink ref="G30:G30" r:id="rId6"/>
-    <x:hyperlink ref="H30:H30" r:id="rId7"/>
-    <x:hyperlink ref="G34:G34" r:id="rId8"/>
-    <x:hyperlink ref="H34:H34" r:id="rId9"/>
-    <x:hyperlink ref="G37:G37" r:id="rId10"/>
-    <x:hyperlink ref="H37:H37" r:id="rId11"/>
-    <x:hyperlink ref="G40:G40" r:id="rId12"/>
-    <x:hyperlink ref="G42:G42" r:id="rId13"/>
-    <x:hyperlink ref="G51:G51" r:id="rId14"/>
-    <x:hyperlink ref="G52:G52" r:id="rId15"/>
-    <x:hyperlink ref="H52:H52" r:id="rId16"/>
-    <x:hyperlink ref="G8:G11" r:id="rId17"/>
-    <x:hyperlink ref="G12:G17" r:id="rId18"/>
-    <x:hyperlink ref="G18:G22" r:id="rId19"/>
-    <x:hyperlink ref="G44:G44" r:id="rId20"/>
-    <x:hyperlink ref="G49:G49" r:id="rId21"/>
-    <x:hyperlink ref="G55:G55" r:id="rId22"/>
-    <x:hyperlink ref="G56:G56" r:id="rId23"/>
-    <x:hyperlink ref="G57:G57" r:id="rId24"/>
+    <x:hyperlink ref="G30:G30" r:id="rId5"/>
+    <x:hyperlink ref="H30:H30" r:id="rId6"/>
+    <x:hyperlink ref="G34:G34" r:id="rId7"/>
+    <x:hyperlink ref="H34:H34" r:id="rId8"/>
+    <x:hyperlink ref="G37:G37" r:id="rId9"/>
+    <x:hyperlink ref="H37:H37" r:id="rId10"/>
+    <x:hyperlink ref="G40:G40" r:id="rId11"/>
+    <x:hyperlink ref="G42:G42" r:id="rId12"/>
+    <x:hyperlink ref="G51:G51" r:id="rId13"/>
+    <x:hyperlink ref="G52:G52" r:id="rId14"/>
+    <x:hyperlink ref="H52:H52" r:id="rId15"/>
+    <x:hyperlink ref="G8:G11" r:id="rId16"/>
+    <x:hyperlink ref="G12:G17" r:id="rId17"/>
+    <x:hyperlink ref="G18:G22" r:id="rId18"/>
+    <x:hyperlink ref="G44:G44" r:id="rId19"/>
+    <x:hyperlink ref="G49:G49" r:id="rId20"/>
+    <x:hyperlink ref="G55:G55" r:id="rId21"/>
+    <x:hyperlink ref="G56:G56" r:id="rId22"/>
+    <x:hyperlink ref="G57:G57" r:id="rId23"/>
+    <x:hyperlink ref="G27:G27" r:id="rId24"/>
+    <x:hyperlink ref="G27:G29" r:id="rId25"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
